--- a/InputData/hydgn/EHPpUC/Electrolyzer Hydrogen Production per Unit Capacity.xlsx
+++ b/InputData/hydgn/EHPpUC/Electrolyzer Hydrogen Production per Unit Capacity.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\hydgn\EHPpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/hydgn/ehppuc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A7087-9740-324E-8C1B-5B63B161C869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5445"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="5440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="3" r:id="rId2"/>
     <sheet name="EHPpUC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -194,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -223,6 +233,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -503,21 +514,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C1" s="20">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,74 +539,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="25.1328125" customWidth="1"/>
-    <col min="3" max="3" width="27.46484375" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -712,7 +726,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="15.4">
+    <row r="8" spans="1:15" ht="16">
       <c r="A8" s="9">
         <v>60920</v>
       </c>
@@ -723,7 +737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.4">
+    <row r="9" spans="1:15" ht="16">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -879,14 +893,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -896,7 +910,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>

--- a/InputData/hydgn/EHPpUC/Electrolyzer Hydrogen Production per Unit Capacity.xlsx
+++ b/InputData/hydgn/EHPpUC/Electrolyzer Hydrogen Production per Unit Capacity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/hydgn/ehppuc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/hydgn/ehppuc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A7087-9740-324E-8C1B-5B63B161C869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D9428F-6BD6-314A-8427-5ADF0290ACBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="5440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/hydgn/EHPpUC/Electrolyzer Hydrogen Production per Unit Capacity.xlsx
+++ b/InputData/hydgn/EHPpUC/Electrolyzer Hydrogen Production per Unit Capacity.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/hydgn/ehppuc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\hydgn\EHPpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D9428F-6BD6-314A-8427-5ADF0290ACBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="5440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="3" r:id="rId2"/>
     <sheet name="EHPpUC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -119,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -204,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -233,7 +223,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,24 +503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,74 +525,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="B4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1328125" customWidth="1"/>
+    <col min="3" max="3" width="27.46484375" customWidth="1"/>
     <col min="4" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -726,7 +712,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="16">
+    <row r="8" spans="1:15" ht="15.4">
       <c r="A8" s="9">
         <v>60920</v>
       </c>
@@ -737,7 +723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16">
+    <row r="9" spans="1:15" ht="15.4">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -893,14 +879,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -910,7 +896,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
